--- a/temperature_of_components_in_olt/workbook_test_2.xlsx
+++ b/temperature_of_components_in_olt/workbook_test_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="279">
   <si>
     <t xml:space="preserve">Temperature Meaturement With habitual filter, full module, Air guide</t>
   </si>
@@ -571,6 +571,300 @@
   </si>
   <si>
     <t xml:space="preserve">60.312000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature Measurement with habitual filter, full module, Two card Power and Without Air guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature Measurement with habitual filter, full module, One Card Power and Without Air guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature Measurement with habitual filter, full module, Two Cover Power and Without Air guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature Measurement with habitual filter, full module and Without Air guide, Two Cower Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.187000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.312000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.437000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.687000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.812000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.937000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.062000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.187000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.312000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.437000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.562000000000005</t>
   </si>
 </sst>
 </file>
@@ -4937,1406 +5231,1406 @@
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="79.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.35"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="D86" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="D87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="D90" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="D91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D92" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="D93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="D94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="D95" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="D96" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D97" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="D97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D99" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7777,14 +8071,1412 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7800,14 +9492,1412 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7823,14 +10913,1412 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="89.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7846,14 +12334,1412 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
